--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_etiquetado_congeladoras.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_etiquetado_congeladoras.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Archivos Compu DELL\Escritorio\MRV MINEM 1.0 Tercer Entregable-Mantenimientos\Enfoque excel\Excel enfoque etiquetado de eficiencia energetica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEF353-2754-4720-BBAC-67679CB9AE74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B071D922-84BC-46DA-9387-F4E5A51BA2C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BFB3AA29-D743-4340-AADA-08253CA88123}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:L311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +708,7 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B66" si="0">VLOOKUP(C3,Tabla_Categoria,2,)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3" s="11">
         <v>8</v>
@@ -751,7 +751,7 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="11">
         <v>9</v>
@@ -794,10 +794,10 @@
       </c>
       <c r="B5" s="13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
@@ -9706,7 +9706,7 @@
       <c r="L311" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="sWErd8vEd9l9EX3h3Gxm+os1Qov3DP0N/iFSp2AKz7reTvlf/QCn8SdFqOGCZ63Ii6ZtiJ9BXxOW++om0+aNQA==" saltValue="0VQUuEfLxE/NJSbxbmwKuw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A311" xr:uid="{325F4596-C648-4F62-A0B0-A9AA96889F86}">
       <formula1>Lista_Anno</formula1>
@@ -9741,7 +9741,7 @@
   <dimension ref="A7:P28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9793,7 +9793,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="4">
         <v>120</v>
@@ -9828,7 +9828,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" s="4">
         <v>225</v>
@@ -9863,7 +9863,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4">
         <v>375</v>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_etiquetado_congeladoras.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_etiquetado_congeladoras.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788CF851-F062-473A-943F-36878D31F5D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D6469-8CB9-407E-BD41-70C04BA180B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{BFB3AA29-D743-4340-AADA-08253CA88123}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{BFB3AA29-D743-4340-AADA-08253CA88123}"/>
   </bookViews>
   <sheets>
     <sheet name="Etiquetado congeladoras" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Año</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Categoria</t>
-  </si>
-  <si>
-    <t>Capacidad congeladora</t>
   </si>
   <si>
     <t>Etiqueta BAU</t>
@@ -140,12 +137,6 @@
     <t>Categoría</t>
   </si>
   <si>
-    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de lista desplegable.</t>
-  </si>
-  <si>
-    <t>Etiqueta del equipo nuevo. Seleccione de lista desplegable.</t>
-  </si>
-  <si>
     <t>Capacidad del equipo congeladora. Seleccione de la lista desplegable.</t>
   </si>
   <si>
@@ -156,6 +147,21 @@
   </si>
   <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+  </si>
+  <si>
+    <t>Capacidad congeladora (L)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE BAU</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE Acción</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -636,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE823AB-9D5C-4C2A-AF86-4CD313381578}">
   <dimension ref="A1:J312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -645,12 +651,12 @@
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,33 +668,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -701,27 +707,27 @@
       <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>29</v>
+      <c r="A3" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
+      <c r="C3" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H3" s="10"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,14 +753,14 @@
         <v>5</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="15">
         <f t="shared" ref="H4:H67" si="3">VLOOKUP(I4,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="16">
         <v>26914</v>
@@ -8153,7 +8159,7 @@
       <c r="J312" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="agHkDJjq1JL6c/ir750O45ZxTHq/XDS7XwGI6RwzA9CyQryrVfDxyPKzqnN3yWh0M+IhnMHQaMxtewvy1SHYAg==" saltValue="wWjrwfOkw8kfSa9ZUa1D+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aQbaLxzb0B6D1CxPQSWHy14L1l6mwQWEgMpgUbXyIeUV7o7gKnC95RDEntTgRyUIIaE1pOu/9ug8UuPtmEOvNg==" saltValue="R3jOt7P/JdZhGJroeshe/Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:J2"/>
   </mergeCells>
@@ -8205,31 +8211,31 @@
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -8249,19 +8255,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
@@ -8284,19 +8290,19 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="2">
         <v>2</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M9" s="2">
         <v>2</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P9" s="2">
         <v>2</v>
@@ -8319,19 +8325,19 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" s="2">
         <v>3</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M10" s="2">
         <v>3</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P10" s="2">
         <v>3</v>
@@ -8348,19 +8354,19 @@
         <v>4</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2">
         <v>4</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="2">
         <v>4</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P11" s="2">
         <v>4</v>
@@ -8377,19 +8383,19 @@
         <v>5</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M12" s="2">
         <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P12" s="2">
         <v>5</v>
@@ -8400,19 +8406,19 @@
         <v>2015</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" s="2">
         <v>6</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M13" s="2">
         <v>6</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P13" s="2">
         <v>6</v>
@@ -8423,19 +8429,19 @@
         <v>2016</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" s="2">
         <v>7</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M14" s="2">
         <v>7</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P14" s="2">
         <v>7</v>
@@ -8446,7 +8452,7 @@
         <v>2017</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" s="2">
         <v>8</v>
@@ -8457,7 +8463,7 @@
         <v>2018</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="2">
         <v>9</v>
@@ -8468,7 +8474,7 @@
         <v>2019</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P17" s="2">
         <v>10</v>
@@ -8479,7 +8485,7 @@
         <v>2020</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P18" s="2">
         <v>11</v>
@@ -8490,7 +8496,7 @@
         <v>2021</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P19" s="2">
         <v>12</v>
